--- a/BackEnd/excel/raziyeh@gmail.com.xlsx
+++ b/BackEnd/excel/raziyeh@gmail.com.xlsx
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
